--- a/seed.xlsx
+++ b/seed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\script2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_projects\script2\script2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35BE946-7FC3-492E-AA25-375B3F1126E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DAD408-4E0B-4CA5-B0B2-59945A046166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="53">
   <si>
     <t>A1</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>ODF-9</t>
-  </si>
-  <si>
-    <t>A列架顶机框</t>
   </si>
   <si>
     <t>ODF</t>
@@ -184,6 +181,14 @@
   </si>
   <si>
     <t>京澳中心汇聚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A列架顶机框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-72</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,27 +525,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -548,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -559,10 +564,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -570,10 +575,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -581,10 +586,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -592,10 +597,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -603,10 +608,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -614,10 +619,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -625,10 +630,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -636,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -647,10 +652,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -658,10 +663,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -669,10 +674,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -680,10 +685,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -691,10 +696,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -702,546 +707,546 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
       <c r="C30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>26</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
         <v>28</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
         <v>29</v>
       </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
         <v>28</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
         <v>30</v>
       </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
         <v>31</v>
       </c>
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
         <v>32</v>
       </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
         <v>33</v>
       </c>
-      <c r="C49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
         <v>34</v>
       </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
         <v>35</v>
       </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
         <v>36</v>
       </c>
-      <c r="C52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
         <v>37</v>
       </c>
-      <c r="C53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+      <c r="C64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>39</v>
-      </c>
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>40</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
